--- a/bo_templates/viola_bo_template.xlsx
+++ b/bo_templates/viola_bo_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khouloud.allali\Backlite Media Dropbox\Sales\Viola\Booking Order Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrtamer711/Documents/Sales Proposals/bo_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B84D4-5BCC-4A72-8DFC-2F622EA28429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1395CCCD-5A6A-A940-B68A-E50351C05186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{30FAD0CB-2E7E-4CA9-A11C-3C1D7AE234D8}"/>
+    <workbookView xWindow="-100" yWindow="680" windowWidth="23240" windowHeight="13880" xr2:uid="{30FAD0CB-2E7E-4CA9-A11C-3C1D7AE234D8}"/>
   </bookViews>
   <sheets>
     <sheet name="BO Form" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Booking Order Form</t>
   </si>
@@ -105,8 +105,11 @@
     <t>Signature</t>
   </si>
   <si>
+    <t>Net excl. SLA:</t>
+  </si>
+  <si>
     <r>
-      <t>Net rentals excl. SLA:</t>
+      <t>Location splits excl. SLA:</t>
     </r>
     <r>
       <rPr>
@@ -125,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -352,7 +355,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
@@ -372,12 +375,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -386,14 +389,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,21 +823,21 @@
   </sheetPr>
   <dimension ref="A9:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
@@ -845,11 +848,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
@@ -859,12 +862,12 @@
       </c>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
@@ -874,12 +877,12 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
@@ -889,12 +892,12 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
@@ -904,12 +907,12 @@
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -919,13 +922,13 @@
       </c>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -937,13 +940,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="19"/>
       <c r="C22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -957,12 +960,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="16"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="23.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -972,11 +975,11 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" s="17"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
@@ -986,81 +989,83 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="16"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+    <row r="29" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15"/>
       <c r="D29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="23"/>
     </row>
-    <row r="30" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="16"/>
       <c r="D30" s="7"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
     </row>
-    <row r="37" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
     </row>
-    <row r="38" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
     </row>
-    <row r="39" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>24</v>
       </c>
@@ -1069,19 +1074,19 @@
       <c r="D39" s="38"/>
       <c r="E39" s="39"/>
     </row>
-    <row r="42" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E46" s="13" t="s">
         <v>17</v>
       </c>
